--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -756,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,9 +817,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,9 +874,6 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,6 +923,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,7 +1265,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1261,155 +1285,155 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="22" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="41">
         <v>44441</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="43">
         <v>44442</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="44">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="57">
         <v>44445</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="59">
         <v>44449</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="62">
         <v>44449</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="37">
         <v>44452</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="38">
         <v>44456</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="33" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>44462</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>44463</v>
       </c>
       <c r="F8" s="6">
@@ -1422,25 +1446,25 @@
       <c r="H8" s="10">
         <v>44463</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>44466</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>44470</v>
       </c>
       <c r="F9" s="6">
@@ -1452,22 +1476,22 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>44474</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>44477</v>
       </c>
       <c r="F10" s="6">
@@ -1483,10 +1507,10 @@
       <c r="I10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1494,13 +1518,13 @@
       <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>44481</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>44484</v>
       </c>
       <c r="F11" s="6">
@@ -1516,22 +1540,22 @@
       <c r="I11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="35"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>44487</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>44491</v>
       </c>
       <c r="F12" s="6">
@@ -1543,41 +1567,41 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="35"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
       <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>44494</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>44496</v>
       </c>
       <c r="F13" s="14">
         <f>DAYS360(C13,E13)+1</f>
         <v>3</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="15">
         <v>44496</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="36" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1590,30 +1614,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
     </row>
-    <row r="16" spans="1:11" s="26" customFormat="1" ht="20.25">
-      <c r="B16" s="54" t="s">
+    <row r="16" spans="1:11" s="25" customFormat="1" ht="20.25">
+      <c r="B16" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -904,6 +904,36 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,36 +953,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1285,39 +1285,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
@@ -1365,35 +1365,35 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="50">
         <v>44445</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="52">
         <v>44449</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="55">
         <v>44449</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="64"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
       <c r="A7" s="9"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="58" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="39"/>
@@ -1614,30 +1614,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" ht="20.25">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -229,10 +230,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CGV응용사이트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -292,6 +289,11 @@
   </si>
   <si>
     <t>jQuery 응용 + Vue.js 가이드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGV응용사이트
+(9/30목까지)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1265,7 +1267,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1328,13 +1330,13 @@
         <v>12</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
@@ -1360,7 +1362,7 @@
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="48"/>
     </row>
@@ -1391,7 +1393,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="57"/>
     </row>
@@ -1419,7 +1421,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="39"/>
     </row>
@@ -1447,7 +1449,7 @@
         <v>44463</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>16</v>
@@ -1505,13 +1507,13 @@
         <v>44474</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
@@ -1538,10 +1540,10 @@
         <v>44483</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -1568,7 +1570,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
       <c r="J12" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="34"/>
     </row>
@@ -1590,19 +1592,19 @@
         <v>3</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="15">
         <v>44496</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="47.25" customHeight="1" thickBot="1">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -758,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,9 +842,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,9 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,6 +948,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1267,7 +1272,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1287,39 +1292,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
@@ -1340,121 +1345,121 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>44441</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <v>44442</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="48"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>44445</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <v>44449</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="54">
         <v>44449</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="57"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="49">
         <v>44452</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="51">
         <v>44456</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="58" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="36">
         <v>44462</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="37">
         <v>44463</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="64">
         <v>44463</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -1478,10 +1483,10 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
       <c r="B10" s="8" t="s">
@@ -1509,10 +1514,10 @@
       <c r="I10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1542,10 +1547,10 @@
       <c r="I11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
       <c r="B12" s="8" t="s">
@@ -1569,10 +1574,10 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
       <c r="B13" s="12" t="s">
@@ -1591,19 +1596,19 @@
         <f>DAYS360(C13,E13)+1</f>
         <v>3</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="15">
         <v>44496</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1616,30 +1621,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" ht="20.25">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -929,6 +929,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,17 +959,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1292,39 +1292,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="59" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="49">
         <v>44462</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="51">
         <v>44463</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="54">
         <v>44463</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="38"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="36">
         <v>44466</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="37">
         <v>44470</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="18">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="30" t="s">
+      <c r="H9" s="57"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="33"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
       <c r="B10" s="8" t="s">
@@ -1621,30 +1621,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" ht="20.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -238,10 +238,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 용용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -293,6 +289,10 @@
   <si>
     <t>CGV응용사이트
 (9/30목까지)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -938,6 +938,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,9 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1292,39 +1292,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
@@ -1335,13 +1335,13 @@
         <v>12</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
@@ -1398,7 +1398,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="56"/>
     </row>
@@ -1452,8 +1452,8 @@
       <c r="H8" s="54">
         <v>44463</v>
       </c>
-      <c r="I8" s="67" t="s">
-        <v>45</v>
+      <c r="I8" s="60" t="s">
+        <v>44</v>
       </c>
       <c r="J8" s="55" t="s">
         <v>16</v>
@@ -1512,13 +1512,13 @@
         <v>44474</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
@@ -1545,10 +1545,10 @@
         <v>44483</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K11" s="33"/>
     </row>
@@ -1575,7 +1575,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
       <c r="J12" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="33"/>
     </row>
@@ -1597,19 +1597,19 @@
         <v>3</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="15">
         <v>44496</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
@@ -1621,30 +1621,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" ht="20.25">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -283,16 +283,16 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 응용 + Vue.js 가이드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CGV응용사이트
 (9/30목까지)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 + Vue.js 가이드</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1453,7 +1453,7 @@
         <v>44463</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="55" t="s">
         <v>16</v>
@@ -1548,7 +1548,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" s="33"/>
     </row>
@@ -1606,7 +1606,7 @@
         <v>36</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13" s="35" t="s">
         <v>42</v>

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -250,10 +250,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>파일럿 PJ 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>포트폴리오 실기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -288,11 +284,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용 + Vue.js 가이드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 기본 / SVG 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,9 +849,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,9 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -872,9 +866,6 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,6 +930,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1272,7 +1266,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1292,39 +1286,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
@@ -1335,190 +1329,190 @@
         <v>12</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="37">
         <v>44441</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="39">
         <v>44442</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="40">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="47"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="46">
         <v>44445</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="48">
         <v>44449</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="51">
         <v>44449</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="56"/>
+      <c r="J6" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="46">
         <v>44452</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="48">
         <v>44456</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="56"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="46">
         <v>44462</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="48">
         <v>44463</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="51">
         <v>44463</v>
       </c>
-      <c r="I8" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="55" t="s">
+      <c r="I8" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="56"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="46">
         <v>44466</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="48">
         <v>44470</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="49">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="58" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="34">
         <v>44474</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="35">
         <v>44477</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="18">
         <f>DAYS360(C10,E10)+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="54">
         <v>44474</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>41</v>
+      <c r="K10" s="58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
@@ -1547,10 +1541,10 @@
       <c r="I11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="33"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
       <c r="B12" s="8" t="s">
@@ -1574,10 +1568,10 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
       <c r="B13" s="12" t="s">
@@ -1597,19 +1591,19 @@
         <v>3</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="15">
         <v>44496</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>42</v>
+      <c r="J13" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
@@ -1621,30 +1615,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" ht="20.25">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -288,11 +288,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>파일럿 PJ 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>jQuery 기본 / SVG 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1542,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" s="32"/>
     </row>
@@ -1597,7 +1597,7 @@
         <v>44496</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>43</v>

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -757,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,18 +923,12 @@
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,6 +949,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1265,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1286,39 +1289,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1421,7 @@
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="55" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="53"/>
@@ -1446,7 +1449,7 @@
       <c r="H8" s="51">
         <v>44463</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="56" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="52" t="s">
@@ -1482,69 +1485,69 @@
       <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="46">
         <v>44474</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="48">
         <v>44477</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="49">
         <f>DAYS360(C10,E10)+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="51">
         <v>44474</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="66" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="34">
         <v>44481</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="35">
         <v>44484</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="18">
         <f>DAYS360(C11,E11)+1</f>
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="54">
         <v>44483</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
       <c r="B12" s="8" t="s">
@@ -1615,30 +1618,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" ht="20.25">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -757,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,27 +773,9 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,12 +809,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -848,13 +824,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,6 +899,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,14 +929,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1269,7 +1242,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1289,323 +1262,323 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="21" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="27">
         <v>44441</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="29">
         <v>44442</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="30">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="36">
         <v>44445</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="38">
         <v>44449</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="41">
         <v>44449</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="53"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="36">
         <v>44452</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="38">
         <v>44456</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="55" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="36">
         <v>44462</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="38">
         <v>44463</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="41">
         <v>44463</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="36">
         <v>44466</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="38">
         <v>44470</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="39">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="53"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="36">
         <v>44474</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="38">
         <v>44477</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="39">
         <f>DAYS360(C10,E10)+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="41">
         <v>44474</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="36">
         <v>44481</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="38">
         <v>44484</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="39">
         <f>DAYS360(C11,E11)+1</f>
         <v>4</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="41">
         <v>44483</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="65"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="24">
         <v>44487</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="25">
         <v>44491</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="12">
         <f>DAYS360(C12,E12)+1</f>
         <v>5</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="30" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="18">
         <v>44494</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="19">
         <v>44496</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="8">
         <f>DAYS360(C13,E13)+1</f>
         <v>3</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="9">
         <v>44496</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="23" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1618,30 +1591,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
     </row>
-    <row r="16" spans="1:11" s="25" customFormat="1" ht="20.25">
-      <c r="B16" s="60" t="s">
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="20.25">
+      <c r="B16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
+++ b/000.커리큐럼/KNG-FED211_주단위상세일정.xlsx
@@ -757,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,30 +776,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,30 +788,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,21 +842,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -929,7 +872,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1215,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1262,323 +1235,323 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="11">
         <v>44441</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="13">
         <v>44442</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="14">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="34"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="20">
         <v>44445</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="22">
         <v>44449</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="25">
         <v>44449</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="20">
         <v>44452</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="22">
         <v>44456</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="45" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="20">
         <v>44462</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="22">
         <v>44463</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="25">
         <v>44463</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="43"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="20">
         <v>44466</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="22">
         <v>44470</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="23">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="42" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="20">
         <v>44474</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="22">
         <v>44477</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="23">
         <f>DAYS360(C10,E10)+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="25">
         <v>44474</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="20">
         <v>44481</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="22">
         <v>44484</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="23">
         <f>DAYS360(C11,E11)+1</f>
         <v>4</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="25">
         <v>44483</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="43"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="20">
         <v>44487</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>44491</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="23">
         <f>DAYS360(C12,E12)+1</f>
         <v>5</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="47" t="s">
+      <c r="H12" s="25"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="48"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="39">
         <v>44494</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="41">
         <v>44496</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="42">
         <f>DAYS360(C13,E13)+1</f>
         <v>3</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="44">
         <v>44496</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="47" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1591,30 +1564,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="20.25">
-      <c r="B16" s="53" t="s">
+    <row r="16" spans="1:11" s="9" customFormat="1" ht="20.25">
+      <c r="B16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
